--- a/user_files/reagent_index.xlsx
+++ b/user_files/reagent_index.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Robot\Softwares\SynM\App\user_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xubar\OneDrive\Robot\Softwares\S2\user_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B29BBDA-C93E-43DC-BE6A-33B3AB469C89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2211" yWindow="1414" windowWidth="28800" windowHeight="18656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2213" yWindow="1413" windowWidth="28800" windowHeight="18653"/>
   </bookViews>
   <sheets>
     <sheet name="reagent_index" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="84">
   <si>
     <t>CAS-NO</t>
   </si>
@@ -84,9 +83,6 @@
     <t>B1</t>
   </si>
   <si>
-    <t>DMSO</t>
-  </si>
-  <si>
     <t>DCE</t>
   </si>
   <si>
@@ -148,10 +144,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>brine</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>A1</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -231,10 +223,6 @@
     <t>plate_5mL:002</t>
   </si>
   <si>
-    <t>KF</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>B2</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -255,10 +243,6 @@
   </si>
   <si>
     <t>plate_5mL:003</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>CsF</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
@@ -273,7 +257,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -289,7 +273,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -305,7 +289,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -321,7 +305,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -337,7 +321,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -346,14 +330,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>Ethyl-acetate</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Acetone</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>Toluene</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -366,33 +342,119 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>Grubbs-Cat-2nd-gen</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ethyl-acrylate</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>1-Octene</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>NaOH</t>
-  </si>
-  <si>
     <t>B2</t>
+  </si>
+  <si>
+    <t>Xylene</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Methoxyphenylboronic-acid</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-Methylbenzeneboronic-acid</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3PO4</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benzyl-bromide</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rine</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -400,14 +462,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -415,7 +477,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="等线 Light"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -424,7 +486,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -433,7 +495,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -442,7 +504,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -450,7 +512,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -458,7 +520,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -466,7 +528,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -474,7 +536,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -483,7 +545,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -492,7 +554,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -500,7 +562,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -509,7 +571,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -517,7 +579,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -526,7 +588,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -535,7 +597,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -543,14 +605,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -559,7 +621,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -567,7 +629,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -925,7 +987,7 @@
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="11"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -943,50 +1005,52 @@
     <xf numFmtId="0" fontId="2" fillId="19" borderId="5" xfId="28" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="9" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="19" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" xfId="36" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="20" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1297,28 +1361,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:CG103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.8"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1"/>
+    <col min="1" max="1" width="35.1171875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-    <col min="6" max="6" width="31.44140625" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.3515625" customWidth="1"/>
+    <col min="4" max="4" width="15.87890625" customWidth="1"/>
+    <col min="5" max="5" width="15.234375" customWidth="1"/>
+    <col min="6" max="6" width="31.41015625" customWidth="1"/>
+    <col min="7" max="7" width="26.3515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" s="2" customFormat="1">
+    <row r="1" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -1329,13 +1393,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1"/>
       <c r="H1"/>
@@ -1417,7 +1481,7 @@
       <c r="CF1"/>
       <c r="CG1"/>
     </row>
-    <row r="2" spans="1:85" s="1" customFormat="1">
+    <row r="2" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -1426,7 +1490,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>6</v>
@@ -1514,9 +1578,9 @@
       <c r="CF2"/>
       <c r="CG2"/>
     </row>
-    <row r="3" spans="1:85" s="3" customFormat="1">
+    <row r="3" spans="1:85" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9" t="s">
@@ -1611,16 +1675,16 @@
       <c r="CF3"/>
       <c r="CG3"/>
     </row>
-    <row r="4" spans="1:85" s="3" customFormat="1">
+    <row r="4" spans="1:85" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>6</v>
@@ -1708,16 +1772,16 @@
       <c r="CF4"/>
       <c r="CG4"/>
     </row>
-    <row r="5" spans="1:85" s="1" customFormat="1">
+    <row r="5" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>6</v>
@@ -1805,16 +1869,16 @@
       <c r="CF5"/>
       <c r="CG5"/>
     </row>
-    <row r="6" spans="1:85" s="1" customFormat="1">
+    <row r="6" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>6</v>
@@ -1902,16 +1966,16 @@
       <c r="CF6"/>
       <c r="CG6"/>
     </row>
-    <row r="7" spans="1:85">
+    <row r="7" spans="1:85" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>6</v>
@@ -1920,13 +1984,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:85" s="7" customFormat="1">
+    <row r="8" spans="1:85" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>15</v>
@@ -2017,13 +2081,13 @@
       <c r="CF8" s="6"/>
       <c r="CG8" s="6"/>
     </row>
-    <row r="9" spans="1:85" s="7" customFormat="1">
+    <row r="9" spans="1:85" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>16</v>
@@ -2114,16 +2178,16 @@
       <c r="CF9" s="6"/>
       <c r="CG9" s="6"/>
     </row>
-    <row r="10" spans="1:85" s="7" customFormat="1">
+    <row r="10" spans="1:85" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>6</v>
@@ -2211,16 +2275,16 @@
       <c r="CF10" s="6"/>
       <c r="CG10" s="6"/>
     </row>
-    <row r="11" spans="1:85" s="7" customFormat="1">
+    <row r="11" spans="1:85" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>6</v>
@@ -2308,16 +2372,16 @@
       <c r="CF11" s="6"/>
       <c r="CG11" s="6"/>
     </row>
-    <row r="12" spans="1:85" s="7" customFormat="1">
-      <c r="A12" s="12" t="s">
-        <v>19</v>
+    <row r="12" spans="1:85" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>6</v>
@@ -2405,16 +2469,16 @@
       <c r="CF12" s="6"/>
       <c r="CG12" s="6"/>
     </row>
-    <row r="13" spans="1:85" s="7" customFormat="1">
+    <row r="13" spans="1:85" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>6</v>
@@ -2502,13 +2566,11 @@
       <c r="CF13" s="6"/>
       <c r="CG13" s="6"/>
     </row>
-    <row r="14" spans="1:85" s="5" customFormat="1">
-      <c r="A14" s="11" t="s">
-        <v>75</v>
-      </c>
+    <row r="14" spans="1:85" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>4</v>
@@ -2517,7 +2579,7 @@
         <v>7</v>
       </c>
       <c r="F14" s="11">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -2553,22 +2615,22 @@
       <c r="AL14"/>
       <c r="AM14"/>
     </row>
-    <row r="15" spans="1:85" s="5" customFormat="1">
+    <row r="15" spans="1:85" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="11" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="11">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
@@ -2604,22 +2666,22 @@
       <c r="AL15"/>
       <c r="AM15"/>
     </row>
-    <row r="16" spans="1:85" s="5" customFormat="1">
+    <row r="16" spans="1:85" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="11">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
@@ -2655,22 +2717,22 @@
       <c r="AL16"/>
       <c r="AM16"/>
     </row>
-    <row r="17" spans="1:39" s="4" customFormat="1">
+    <row r="17" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="11">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
@@ -2706,22 +2768,22 @@
       <c r="AL17"/>
       <c r="AM17"/>
     </row>
-    <row r="18" spans="1:39" s="4" customFormat="1">
-      <c r="A18" s="11" t="s">
-        <v>57</v>
+    <row r="18" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="18" t="s">
+        <v>83</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="11">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
@@ -2757,22 +2819,22 @@
       <c r="AL18"/>
       <c r="AM18"/>
     </row>
-    <row r="19" spans="1:39" s="5" customFormat="1">
+    <row r="19" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="11">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
@@ -2808,22 +2870,22 @@
       <c r="AL19"/>
       <c r="AM19"/>
     </row>
-    <row r="20" spans="1:39" s="8" customFormat="1">
-      <c r="A20" s="4" t="s">
-        <v>61</v>
+    <row r="20" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F20" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>0.1</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -2859,22 +2921,22 @@
       <c r="AL20"/>
       <c r="AM20"/>
     </row>
-    <row r="21" spans="1:39" s="8" customFormat="1">
-      <c r="A21" s="4" t="s">
-        <v>68</v>
+    <row r="21" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>38</v>
+      <c r="D21" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F21" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
@@ -2910,22 +2972,22 @@
       <c r="AL21"/>
       <c r="AM21"/>
     </row>
-    <row r="22" spans="1:39" s="8" customFormat="1">
-      <c r="A22" s="4" t="s">
-        <v>80</v>
+    <row r="22" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>17</v>
+      <c r="D22" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F22" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
@@ -2961,19 +3023,17 @@
       <c r="AL22"/>
       <c r="AM22"/>
     </row>
-    <row r="23" spans="1:39" s="8" customFormat="1">
-      <c r="A23" s="5" t="s">
-        <v>83</v>
-      </c>
+    <row r="23" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="5"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F23" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3012,19 +3072,17 @@
       <c r="AL23"/>
       <c r="AM23"/>
     </row>
-    <row r="24" spans="1:39" s="8" customFormat="1">
-      <c r="A24" s="5" t="s">
-        <v>15</v>
-      </c>
+    <row r="24" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="5"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F24" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3063,17 +3121,17 @@
       <c r="AL24"/>
       <c r="AM24"/>
     </row>
-    <row r="25" spans="1:39" s="8" customFormat="1">
+    <row r="25" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F25" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3112,19 +3170,19 @@
       <c r="AL25"/>
       <c r="AM25"/>
     </row>
-    <row r="26" spans="1:39" s="8" customFormat="1">
+    <row r="26" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F26" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3163,17 +3221,17 @@
       <c r="AL26"/>
       <c r="AM26"/>
     </row>
-    <row r="27" spans="1:39" s="8" customFormat="1">
+    <row r="27" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F27" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3212,7 +3270,7 @@
       <c r="AL27"/>
       <c r="AM27"/>
     </row>
-    <row r="28" spans="1:39" s="8" customFormat="1">
+    <row r="28" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
@@ -3222,7 +3280,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F28" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3261,17 +3319,17 @@
       <c r="AL28"/>
       <c r="AM28"/>
     </row>
-    <row r="29" spans="1:39" s="8" customFormat="1">
+    <row r="29" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F29" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3310,17 +3368,17 @@
       <c r="AL29"/>
       <c r="AM29"/>
     </row>
-    <row r="30" spans="1:39" s="8" customFormat="1">
+    <row r="30" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F30" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3359,17 +3417,17 @@
       <c r="AL30"/>
       <c r="AM30"/>
     </row>
-    <row r="31" spans="1:39" s="8" customFormat="1">
+    <row r="31" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F31" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3408,7 +3466,7 @@
       <c r="AL31"/>
       <c r="AM31"/>
     </row>
-    <row r="32" spans="1:39" s="8" customFormat="1">
+    <row r="32" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
@@ -3418,7 +3476,7 @@
         <v>12</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F32" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3457,17 +3515,17 @@
       <c r="AL32"/>
       <c r="AM32"/>
     </row>
-    <row r="33" spans="1:39" s="8" customFormat="1">
+    <row r="33" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F33" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3506,17 +3564,17 @@
       <c r="AL33"/>
       <c r="AM33"/>
     </row>
-    <row r="34" spans="1:39" s="8" customFormat="1">
+    <row r="34" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F34" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3555,17 +3613,17 @@
       <c r="AL34"/>
       <c r="AM34"/>
     </row>
-    <row r="35" spans="1:39" s="8" customFormat="1">
+    <row r="35" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F35" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3604,17 +3662,17 @@
       <c r="AL35"/>
       <c r="AM35"/>
     </row>
-    <row r="36" spans="1:39" s="8" customFormat="1">
+    <row r="36" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="F36" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3653,17 +3711,17 @@
       <c r="AL36"/>
       <c r="AM36"/>
     </row>
-    <row r="37" spans="1:39" s="8" customFormat="1">
+    <row r="37" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F37" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3702,17 +3760,17 @@
       <c r="AL37"/>
       <c r="AM37"/>
     </row>
-    <row r="38" spans="1:39" s="8" customFormat="1">
+    <row r="38" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F38" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3751,17 +3809,17 @@
       <c r="AL38"/>
       <c r="AM38"/>
     </row>
-    <row r="39" spans="1:39" s="8" customFormat="1">
+    <row r="39" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F39" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3800,7 +3858,7 @@
       <c r="AL39"/>
       <c r="AM39"/>
     </row>
-    <row r="40" spans="1:39" s="8" customFormat="1">
+    <row r="40" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
@@ -3810,7 +3868,7 @@
         <v>13</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F40" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3849,17 +3907,17 @@
       <c r="AL40"/>
       <c r="AM40"/>
     </row>
-    <row r="41" spans="1:39" s="8" customFormat="1">
+    <row r="41" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F41" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3898,17 +3956,17 @@
       <c r="AL41"/>
       <c r="AM41"/>
     </row>
-    <row r="42" spans="1:39" s="8" customFormat="1">
+    <row r="42" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F42" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3947,17 +4005,17 @@
       <c r="AL42"/>
       <c r="AM42"/>
     </row>
-    <row r="43" spans="1:39" s="8" customFormat="1">
+    <row r="43" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F43" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3996,7 +4054,7 @@
       <c r="AL43"/>
       <c r="AM43"/>
     </row>
-    <row r="44" spans="1:39" s="8" customFormat="1">
+    <row r="44" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4" t="s">
@@ -4006,7 +4064,7 @@
         <v>14</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F44" s="4">
         <v>5.0000000000000001E-3</v>
@@ -4045,17 +4103,17 @@
       <c r="AL44"/>
       <c r="AM44"/>
     </row>
-    <row r="45" spans="1:39" s="8" customFormat="1">
+    <row r="45" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F45" s="4">
         <v>5.0000000000000001E-3</v>
@@ -4094,17 +4152,17 @@
       <c r="AL45"/>
       <c r="AM45"/>
     </row>
-    <row r="46" spans="1:39" s="8" customFormat="1">
+    <row r="46" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F46" s="4">
         <v>5.0000000000000001E-3</v>
@@ -4143,17 +4201,17 @@
       <c r="AL46"/>
       <c r="AM46"/>
     </row>
-    <row r="47" spans="1:39" s="8" customFormat="1">
+    <row r="47" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="5"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F47" s="4">
         <v>5.0000000000000001E-3</v>
@@ -4192,13 +4250,13 @@
       <c r="AL47"/>
       <c r="AM47"/>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A48" s="13" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>4</v>
@@ -4210,13 +4268,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B49" s="13"/>
       <c r="C49" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>18</v>
@@ -4228,13 +4286,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="13" t="s">
-        <v>81</v>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="B50" s="13"/>
       <c r="C50" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D50" s="13" t="s">
         <v>17</v>
@@ -4246,16 +4304,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="16" t="s">
-        <v>18</v>
-      </c>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" s="16"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>6</v>
@@ -4264,16 +4320,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="16" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E52" s="13" t="s">
         <v>6</v>
@@ -4282,16 +4338,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B53" s="13"/>
       <c r="C53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>6</v>
@@ -4300,16 +4356,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B54" s="13"/>
       <c r="C54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="13" t="s">
         <v>60</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>63</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>6</v>
@@ -4318,16 +4374,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B55" s="13"/>
       <c r="C55" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>6</v>
@@ -4336,11 +4392,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>10</v>
@@ -4352,14 +4408,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>6</v>
@@ -4368,14 +4424,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>6</v>
@@ -4384,14 +4440,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E59" s="13" t="s">
         <v>6</v>
@@ -4400,11 +4456,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>12</v>
@@ -4416,14 +4472,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E61" s="13" t="s">
         <v>6</v>
@@ -4432,14 +4488,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E62" s="13" t="s">
         <v>6</v>
@@ -4448,14 +4504,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E63" s="13" t="s">
         <v>6</v>
@@ -4464,14 +4520,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E64" s="13" t="s">
         <v>6</v>
@@ -4480,14 +4536,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>6</v>
@@ -4496,14 +4552,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>6</v>
@@ -4512,14 +4568,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>6</v>
@@ -4528,11 +4584,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D68" s="13" t="s">
         <v>13</v>
@@ -4544,14 +4600,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>6</v>
@@ -4560,14 +4616,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>6</v>
@@ -4576,14 +4632,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" s="13"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E71" s="13" t="s">
         <v>6</v>
@@ -4592,11 +4648,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="13"/>
       <c r="B72" s="13"/>
       <c r="C72" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D72" s="13" t="s">
         <v>14</v>
@@ -4608,14 +4664,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>6</v>
@@ -4624,14 +4680,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" s="13"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E74" s="13" t="s">
         <v>6</v>
@@ -4640,14 +4696,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>6</v>
@@ -4656,11 +4712,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D76" s="14" t="s">
         <v>4</v>
@@ -4672,11 +4728,11 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>18</v>
@@ -4688,7 +4744,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14" t="s">
@@ -4704,14 +4760,14 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E79" s="14" t="s">
         <v>6</v>
@@ -4720,14 +4776,14 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E80" s="14" t="s">
         <v>6</v>
@@ -4736,14 +4792,14 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E81" s="14" t="s">
         <v>6</v>
@@ -4752,14 +4808,14 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E82" s="14" t="s">
         <v>6</v>
@@ -4768,14 +4824,14 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E83" s="14" t="s">
         <v>6</v>
@@ -4784,7 +4840,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14" t="s">
@@ -4800,14 +4856,14 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E85" s="14" t="s">
         <v>6</v>
@@ -4816,14 +4872,14 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E86" s="14" t="s">
         <v>6</v>
@@ -4832,14 +4888,14 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E87" s="14" t="s">
         <v>6</v>
@@ -4848,7 +4904,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14" t="s">
@@ -4864,14 +4920,14 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E89" s="14" t="s">
         <v>6</v>
@@ -4880,14 +4936,14 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E90" s="14" t="s">
         <v>6</v>
@@ -4896,14 +4952,14 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E91" s="14" t="s">
         <v>6</v>
@@ -4912,14 +4968,14 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E92" s="14" t="s">
         <v>6</v>
@@ -4928,14 +4984,14 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E93" s="14" t="s">
         <v>6</v>
@@ -4944,14 +5000,14 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E94" s="14" t="s">
         <v>6</v>
@@ -4960,14 +5016,14 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E95" s="14" t="s">
         <v>6</v>
@@ -4976,7 +5032,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14" t="s">
@@ -4992,14 +5048,14 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E97" s="14" t="s">
         <v>6</v>
@@ -5008,14 +5064,14 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E98" s="14" t="s">
         <v>6</v>
@@ -5024,14 +5080,14 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E99" s="14" t="s">
         <v>6</v>
@@ -5040,7 +5096,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14" t="s">
@@ -5056,14 +5112,14 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E101" s="14" t="s">
         <v>6</v>
@@ -5072,14 +5128,14 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E102" s="14" t="s">
         <v>6</v>
@@ -5088,14 +5144,14 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E103" s="14" t="s">
         <v>6</v>

--- a/user_files/reagent_index.xlsx
+++ b/user_files/reagent_index.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="86">
   <si>
     <t>CAS-NO</t>
   </si>
@@ -443,6 +443,14 @@
       </rPr>
       <t>rine</t>
     </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diphenyl-sulfide</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thioxanen-9-one</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1367,8 +1375,8 @@
   </sheetPr>
   <dimension ref="A1:CG103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -2667,7 +2675,7 @@
       <c r="AM15"/>
     </row>
     <row r="16" spans="1:85" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="18" t="s">
         <v>54</v>
       </c>
       <c r="B16" s="11"/>
@@ -3024,7 +3032,9 @@
       <c r="AM22"/>
     </row>
     <row r="23" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="5"/>
+      <c r="A23" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
         <v>8</v>
@@ -3036,7 +3046,7 @@
         <v>65</v>
       </c>
       <c r="F23" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
@@ -4305,7 +4315,9 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A51" s="16"/>
+      <c r="A51" s="16" t="s">
+        <v>84</v>
+      </c>
       <c r="B51" s="13"/>
       <c r="C51" s="13" t="s">
         <v>58</v>

--- a/user_files/reagent_index.xlsx
+++ b/user_files/reagent_index.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2213" yWindow="1413" windowWidth="28800" windowHeight="18653"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="23233" windowHeight="12553"/>
   </bookViews>
   <sheets>
     <sheet name="reagent_index" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="94">
   <si>
     <t>CAS-NO</t>
   </si>
@@ -52,16 +52,9 @@
     <t>plate_5mL:001</t>
   </si>
   <si>
-    <t>plate_40mL:001</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>A3</t>
   </si>
   <si>
-    <t>plate_5mL:003</t>
-  </si>
-  <si>
     <t>A4</t>
   </si>
   <si>
@@ -140,10 +133,6 @@
     <t>D7</t>
   </si>
   <si>
-    <t>plate_40mL:003</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>A1</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -184,10 +173,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>plate_40mL:001</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>B3</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -239,10 +224,6 @@
   </si>
   <si>
     <t>plate_5mL:002</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>plate_5mL:003</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
@@ -268,22 +249,6 @@
   <si>
     <r>
       <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>plate_40mL:00</t>
     </r>
     <r>
       <rPr>
@@ -451,6 +416,180 @@
   </si>
   <si>
     <t>Thioxanen-9-one</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>plate_50mL:001</t>
+  </si>
+  <si>
+    <t>plate_50mL:002</t>
+  </si>
+  <si>
+    <t>plate_50mL:003</t>
+  </si>
+  <si>
+    <t>KF</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>CsF</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>plate_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mL:00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>plate_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mL:001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>B4</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>est</t>
+    </r>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -995,7 +1134,7 @@
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="11"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1015,6 +1154,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="19" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="8" xfId="36" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="20" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="28" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1375,8 +1515,8 @@
   </sheetPr>
   <dimension ref="A1:CG103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -1401,13 +1541,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G1"/>
       <c r="H1"/>
@@ -1495,10 +1635,10 @@
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>6</v>
@@ -1588,14 +1728,14 @@
     </row>
     <row r="3" spans="1:85" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>6</v>
@@ -1685,14 +1825,14 @@
     </row>
     <row r="4" spans="1:85" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>6</v>
@@ -1782,14 +1922,14 @@
     </row>
     <row r="5" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>6</v>
@@ -1879,14 +2019,14 @@
     </row>
     <row r="6" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>6</v>
@@ -1976,14 +2116,14 @@
     </row>
     <row r="7" spans="1:85" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>6</v>
@@ -1994,14 +2134,14 @@
     </row>
     <row r="8" spans="1:85" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>6</v>
@@ -2091,14 +2231,14 @@
     </row>
     <row r="9" spans="1:85" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>6</v>
@@ -2188,14 +2328,14 @@
     </row>
     <row r="10" spans="1:85" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>6</v>
@@ -2285,14 +2425,14 @@
     </row>
     <row r="11" spans="1:85" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>6</v>
@@ -2382,14 +2522,14 @@
     </row>
     <row r="12" spans="1:85" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>6</v>
@@ -2479,14 +2619,14 @@
     </row>
     <row r="13" spans="1:85" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>6</v>
@@ -2578,7 +2718,7 @@
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>4</v>
@@ -2625,14 +2765,14 @@
     </row>
     <row r="15" spans="1:85" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>7</v>
@@ -2676,14 +2816,14 @@
     </row>
     <row r="16" spans="1:85" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>7</v>
@@ -2727,14 +2867,14 @@
     </row>
     <row r="17" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>7</v>
@@ -2778,14 +2918,14 @@
     </row>
     <row r="18" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="18" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>7</v>
@@ -2829,14 +2969,14 @@
     </row>
     <row r="19" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>7</v>
@@ -2880,17 +3020,17 @@
     </row>
     <row r="20" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F20" s="4">
         <v>0.1</v>
@@ -2931,17 +3071,17 @@
     </row>
     <row r="21" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F21" s="4">
         <v>8.5000000000000006E-2</v>
@@ -2982,17 +3122,17 @@
     </row>
     <row r="22" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F22" s="4">
         <v>7.0000000000000007E-2</v>
@@ -3033,17 +3173,17 @@
     </row>
     <row r="23" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F23" s="4">
         <v>6.0000000000000001E-3</v>
@@ -3083,16 +3223,18 @@
       <c r="AM23"/>
     </row>
     <row r="24" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="5"/>
+      <c r="A24" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F24" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3138,10 +3280,10 @@
         <v>8</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F25" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3182,17 +3324,17 @@
     </row>
     <row r="26" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="F26" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3238,10 +3380,10 @@
         <v>8</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F27" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3287,10 +3429,10 @@
         <v>8</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F28" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3336,10 +3478,10 @@
         <v>8</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F29" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3385,10 +3527,10 @@
         <v>8</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F30" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3434,10 +3576,10 @@
         <v>8</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F31" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3483,10 +3625,10 @@
         <v>8</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F32" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3532,10 +3674,10 @@
         <v>8</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F33" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3581,10 +3723,10 @@
         <v>8</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F34" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3630,10 +3772,10 @@
         <v>8</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F35" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3679,10 +3821,10 @@
         <v>8</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F36" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3728,10 +3870,10 @@
         <v>8</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F37" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3777,10 +3919,10 @@
         <v>8</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F38" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3826,10 +3968,10 @@
         <v>8</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F39" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3875,10 +4017,10 @@
         <v>8</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F40" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3924,10 +4066,10 @@
         <v>8</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F41" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3973,10 +4115,10 @@
         <v>8</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F42" s="4">
         <v>5.0000000000000001E-3</v>
@@ -4022,10 +4164,10 @@
         <v>8</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F43" s="4">
         <v>5.0000000000000001E-3</v>
@@ -4071,10 +4213,10 @@
         <v>8</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F44" s="4">
         <v>5.0000000000000001E-3</v>
@@ -4120,10 +4262,10 @@
         <v>8</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F45" s="4">
         <v>5.0000000000000001E-3</v>
@@ -4169,10 +4311,10 @@
         <v>8</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F46" s="4">
         <v>5.0000000000000001E-3</v>
@@ -4212,16 +4354,18 @@
       <c r="AM46"/>
     </row>
     <row r="47" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="5"/>
+      <c r="A47" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F47" s="4">
         <v>5.0000000000000001E-3</v>
@@ -4262,11 +4406,11 @@
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A48" s="13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>4</v>
@@ -4280,14 +4424,14 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B49" s="13"/>
       <c r="C49" s="13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E49" s="13" t="s">
         <v>6</v>
@@ -4298,14 +4442,14 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B50" s="13"/>
       <c r="C50" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>6</v>
@@ -4316,14 +4460,14 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="16" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B51" s="13"/>
       <c r="C51" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>6</v>
@@ -4334,14 +4478,14 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E52" s="13" t="s">
         <v>6</v>
@@ -4352,14 +4496,14 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B53" s="13"/>
       <c r="C53" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>6</v>
@@ -4370,14 +4514,14 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B54" s="13"/>
       <c r="C54" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>6</v>
@@ -4388,14 +4532,14 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B55" s="13"/>
       <c r="C55" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>6</v>
@@ -4408,10 +4552,10 @@
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E56" s="13" t="s">
         <v>6</v>
@@ -4424,10 +4568,10 @@
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>6</v>
@@ -4440,10 +4584,10 @@
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>6</v>
@@ -4456,10 +4600,10 @@
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E59" s="13" t="s">
         <v>6</v>
@@ -4472,10 +4616,10 @@
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E60" s="13" t="s">
         <v>6</v>
@@ -4488,10 +4632,10 @@
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E61" s="13" t="s">
         <v>6</v>
@@ -4504,10 +4648,10 @@
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E62" s="13" t="s">
         <v>6</v>
@@ -4520,10 +4664,10 @@
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E63" s="13" t="s">
         <v>6</v>
@@ -4536,10 +4680,10 @@
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D64" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="E64" s="13" t="s">
         <v>6</v>
@@ -4552,10 +4696,10 @@
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>6</v>
@@ -4568,10 +4712,10 @@
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>6</v>
@@ -4584,10 +4728,10 @@
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>6</v>
@@ -4600,10 +4744,10 @@
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E68" s="13" t="s">
         <v>6</v>
@@ -4616,10 +4760,10 @@
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>6</v>
@@ -4632,10 +4776,10 @@
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>6</v>
@@ -4648,10 +4792,10 @@
       <c r="A71" s="13"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E71" s="13" t="s">
         <v>6</v>
@@ -4664,10 +4808,10 @@
       <c r="A72" s="13"/>
       <c r="B72" s="13"/>
       <c r="C72" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E72" s="13" t="s">
         <v>6</v>
@@ -4680,10 +4824,10 @@
       <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>6</v>
@@ -4696,10 +4840,10 @@
       <c r="A74" s="13"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E74" s="13" t="s">
         <v>6</v>
@@ -4712,10 +4856,10 @@
       <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>6</v>
@@ -4727,8 +4871,8 @@
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
-      <c r="C76" s="14" t="s">
-        <v>64</v>
+      <c r="C76" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="D76" s="14" t="s">
         <v>4</v>
@@ -4737,440 +4881,314 @@
         <v>6</v>
       </c>
       <c r="F76" s="14">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
-      <c r="C77" s="14" t="s">
-        <v>64</v>
+      <c r="C77" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E77" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F77" s="14">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
-      <c r="C78" s="14" t="s">
-        <v>11</v>
+      <c r="C78" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E78" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F78" s="14">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
-      <c r="C79" s="14" t="s">
-        <v>11</v>
+      <c r="C79" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E79" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F79" s="14">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="14" t="s">
-        <v>11</v>
+      <c r="C80" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E80" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F80" s="14">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="14" t="s">
-        <v>11</v>
+      <c r="C81" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E81" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F81" s="14">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
-      <c r="C82" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D82" s="14" t="s">
-        <v>60</v>
+      <c r="C82" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>87</v>
       </c>
       <c r="E82" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F82" s="14">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
-      <c r="C83" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" s="14" t="s">
-        <v>61</v>
+      <c r="C83" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="E83" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F83" s="14">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
-      <c r="C84" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D84" s="14" t="s">
-        <v>10</v>
+      <c r="C84" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D84" s="19" t="s">
+        <v>89</v>
       </c>
       <c r="E84" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F84" s="14">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D85" s="14" t="s">
-        <v>23</v>
+      <c r="C85" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>90</v>
       </c>
       <c r="E85" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F85" s="14">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
-      <c r="C86" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" s="14" t="s">
-        <v>24</v>
+      <c r="C86" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="E86" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F86" s="14">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A87" s="14"/>
+      <c r="A87" s="19" t="s">
+        <v>93</v>
+      </c>
       <c r="B87" s="14"/>
-      <c r="C87" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D87" s="14" t="s">
-        <v>25</v>
+      <c r="C87" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>92</v>
       </c>
       <c r="E87" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F87" s="14">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
-      <c r="C88" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D88" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E88" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F88" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
+      <c r="C88" s="19"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
-      <c r="C89" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E89" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F89" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
-      <c r="C90" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D90" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E90" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F90" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
-      <c r="C91" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E91" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F91" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
-      <c r="C92" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D92" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E92" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F92" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
-      <c r="C93" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D93" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E93" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F93" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
-      <c r="C94" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D94" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E94" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F94" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
-      <c r="C95" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D95" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E95" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F95" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
-      <c r="C96" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D96" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E96" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F96" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
-      <c r="C97" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D97" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E97" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F97" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
-      <c r="C98" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D98" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E98" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F98" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
-      <c r="C99" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D99" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E99" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F99" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
-      <c r="C100" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D100" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E100" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F100" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
-      <c r="C101" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D101" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E101" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F101" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
-      <c r="C102" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D102" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E102" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F102" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
-      <c r="C103" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D103" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E103" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F103" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>

--- a/user_files/reagent_index.xlsx
+++ b/user_files/reagent_index.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="114">
   <si>
     <t>CAS-NO</t>
   </si>
@@ -34,19 +34,15 @@
   </si>
   <si>
     <t>A1</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>pure_liquid</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>solution</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>plate_5mL:001</t>
@@ -64,258 +60,143 @@
     <t>A7</t>
   </si>
   <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>DCE</t>
+  </si>
+  <si>
+    <t>Position_in_plate</t>
+  </si>
+  <si>
+    <t>Amount/Conc (mmol or mmol/mL)</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
     <t>A1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMF</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dioxane</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPrOH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>plate_5mL:001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>A2</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>DCE</t>
-  </si>
-  <si>
-    <t>Position_in_plate</t>
-  </si>
-  <si>
-    <t>Amount/Conc (mmol or mmol/mL)</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>A1</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>tBuOH</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH3CN</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>A3</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMF</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dioxane</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>B1</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>K2CO3-water</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>K3PO4-water</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>plate_5mL:002</t>
   </si>
   <si>
     <t>B2</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>iPrOH</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>EtOH</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>B3</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>plate_5mL:001</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>NH4Cl-water</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>K2CO3-water</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>K3PO4-water</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>MeOH</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5</t>
   </si>
   <si>
     <t>plate_5mL:002</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>solid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>B2</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>C2</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>D2</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>plate_5mL:002</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>solid</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CM</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Toluene</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEAD</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     </t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-Octene</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>B2</t>
   </si>
   <si>
     <t>Xylene</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -332,11 +213,11 @@
       </rPr>
       <t>-Methoxyphenylboronic-acid</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>4-Methylbenzeneboronic-acid</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -353,7 +234,7 @@
       </rPr>
       <t>3PO4</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -370,7 +251,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -387,36 +268,19 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Benzyl-bromide</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rine</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Diphenyl-sulfide</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Thioxanen-9-one</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>plate_50mL:001</t>
@@ -429,11 +293,11 @@
   </si>
   <si>
     <t>KF</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>CsF</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -472,7 +336,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -527,7 +391,7 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -544,7 +408,7 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -561,23 +425,74 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>A4</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>B4</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>C4</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>plate_5mL:003</t>
+  </si>
+  <si>
+    <t>solid</t>
+  </si>
+  <si>
+    <t>CuI</t>
+  </si>
+  <si>
+    <t>3375-31-3</t>
+  </si>
+  <si>
+    <t>7681-65-4</t>
+  </si>
+  <si>
+    <t>DCM</t>
+  </si>
+  <si>
+    <t>tBuOH</t>
+  </si>
+  <si>
+    <t>MeOH</t>
+  </si>
+  <si>
+    <t>CH3CN</t>
+  </si>
+  <si>
+    <t>Toluene</t>
+  </si>
+  <si>
+    <t>Cs2CO3-water</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Ethyl-acetate</t>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volatile</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>T</t>
+      <t>s</t>
     </r>
     <r>
       <rPr>
@@ -588,29 +503,335 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>est</t>
+      <t>olution</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ph-B-Tol</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hBr</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r-PhCH2COOEt</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pd(OAc)2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>K4P2O7-water</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dCl2</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pd2dba3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g2O</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gTf2</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g2CO3</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uCl</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uBr</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u(OAc)2</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o(nmp)2</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oCl2</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i(acac)2</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eCl3</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPh3AuCl</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r(cod)2Cl2</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u(bpy)2Cl2</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b(Otf)3</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sc(Otf)3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -963,7 +1184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1089,72 +1310,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="11"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="19" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="23" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="11"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="19" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="23" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="23" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="28"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="4" xfId="28" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="28"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="4" xfId="28" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="15" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="19" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="19" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="20" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="8" xfId="36" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="19" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="5" xfId="28" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="19" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="19" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="8" xfId="36" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="19" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="5" xfId="28" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="9" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="19" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="8" xfId="36" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="20" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="28" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="23" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="23" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="19"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="19" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="8" xfId="40" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="10" xfId="40" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="10" xfId="36" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" xfId="40" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="19" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="19" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1513,10 +1754,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CG103"/>
+  <dimension ref="A1:CG131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -1525,31 +1766,33 @@
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="20.3515625" customWidth="1"/>
     <col min="4" max="4" width="15.87890625" customWidth="1"/>
-    <col min="5" max="5" width="15.234375" customWidth="1"/>
-    <col min="6" max="6" width="31.41015625" customWidth="1"/>
+    <col min="5" max="5" width="15.1171875" customWidth="1"/>
+    <col min="6" max="6" width="31.46875" customWidth="1"/>
     <col min="7" max="7" width="26.3515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:85" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1"/>
+      <c r="F1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>89</v>
+      </c>
       <c r="H1"/>
       <c r="I1"/>
       <c r="J1"/>
@@ -1630,23 +1873,25 @@
       <c r="CG1"/>
     </row>
     <row r="2" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
-        <v>5</v>
+      <c r="A2" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="9">
         <v>0</v>
       </c>
-      <c r="G2"/>
+      <c r="G2" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
@@ -1728,22 +1973,24 @@
     </row>
     <row r="3" spans="1:85" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="9">
         <v>0</v>
       </c>
-      <c r="G3"/>
+      <c r="G3" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
@@ -1824,23 +2071,25 @@
       <c r="CG3"/>
     </row>
     <row r="4" spans="1:85" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="9" t="s">
-        <v>38</v>
+      <c r="A4" s="21" t="s">
+        <v>80</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="9">
         <v>0</v>
       </c>
-      <c r="G4"/>
+      <c r="G4" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
@@ -1921,23 +2170,25 @@
       <c r="CG4"/>
     </row>
     <row r="5" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="9" t="s">
-        <v>40</v>
+      <c r="A5" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" s="9">
         <v>0</v>
       </c>
-      <c r="G5"/>
+      <c r="G5" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
@@ -2018,23 +2269,23 @@
       <c r="CG5"/>
     </row>
     <row r="6" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="9">
         <v>0</v>
       </c>
-      <c r="G6"/>
+      <c r="G6" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
@@ -2115,41 +2366,46 @@
       <c r="CG6"/>
     </row>
     <row r="7" spans="1:85" x14ac:dyDescent="0.45">
-      <c r="A7" s="10" t="s">
-        <v>44</v>
+      <c r="A7" s="27" t="s">
+        <v>91</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="F7" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:85" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:85" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0</v>
-      </c>
-      <c r="G8"/>
+      <c r="G8" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
@@ -2230,23 +2486,25 @@
       <c r="CG8" s="6"/>
     </row>
     <row r="9" spans="1:85" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="A9" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="12">
+      <c r="E9" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="22">
         <v>0</v>
       </c>
-      <c r="G9"/>
+      <c r="G9" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
@@ -2327,23 +2585,25 @@
       <c r="CG9" s="6"/>
     </row>
     <row r="10" spans="1:85" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="12">
+      <c r="A10" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="22">
         <v>0</v>
       </c>
-      <c r="G10"/>
+      <c r="G10" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
@@ -2424,23 +2684,25 @@
       <c r="CG10" s="6"/>
     </row>
     <row r="11" spans="1:85" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="12">
+      <c r="A11" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="22">
         <v>0</v>
       </c>
-      <c r="G11"/>
+      <c r="G11" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
@@ -2521,23 +2783,25 @@
       <c r="CG11" s="6"/>
     </row>
     <row r="12" spans="1:85" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="12" t="s">
+      <c r="A12" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="12">
+      <c r="D12" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="22">
         <v>0</v>
       </c>
-      <c r="G12"/>
+      <c r="G12" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
@@ -2618,23 +2882,25 @@
       <c r="CG12" s="6"/>
     </row>
     <row r="13" spans="1:85" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="12">
+      <c r="A13" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="22">
         <v>0</v>
       </c>
-      <c r="G13"/>
+      <c r="G13" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
@@ -2715,21 +2981,25 @@
       <c r="CG13" s="6"/>
     </row>
     <row r="14" spans="1:85" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="11"/>
+      <c r="A14" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" s="11">
         <v>2.5</v>
       </c>
-      <c r="G14"/>
+      <c r="G14" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14"/>
@@ -2765,22 +3035,24 @@
     </row>
     <row r="15" spans="1:85" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="11" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" s="11">
         <v>2.5</v>
       </c>
-      <c r="G15"/>
+      <c r="G15" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H15"/>
       <c r="I15"/>
       <c r="J15"/>
@@ -2815,23 +3087,25 @@
       <c r="AM15"/>
     </row>
     <row r="16" spans="1:85" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="18" t="s">
-        <v>50</v>
+      <c r="A16" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" s="11">
         <v>2.5</v>
       </c>
-      <c r="G16"/>
+      <c r="G16" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
@@ -2866,23 +3140,25 @@
       <c r="AM16"/>
     </row>
     <row r="17" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="11" t="s">
-        <v>51</v>
+      <c r="A17" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" s="11">
         <v>2.5</v>
       </c>
-      <c r="G17"/>
+      <c r="G17" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
@@ -2917,23 +3193,23 @@
       <c r="AM17"/>
     </row>
     <row r="18" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="18" t="s">
-        <v>77</v>
-      </c>
+      <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" s="11">
         <v>2.5</v>
       </c>
-      <c r="G18"/>
+      <c r="G18" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -2968,23 +3244,25 @@
       <c r="AM18"/>
     </row>
     <row r="19" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="11" t="s">
-        <v>52</v>
+      <c r="A19" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>46</v>
+        <v>63</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" s="11">
         <v>2.5</v>
       </c>
-      <c r="G19"/>
+      <c r="G19" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -3020,22 +3298,24 @@
     </row>
     <row r="20" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F20" s="4">
         <v>0.1</v>
       </c>
-      <c r="G20"/>
+      <c r="G20" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
@@ -3071,22 +3351,24 @@
     </row>
     <row r="21" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F21" s="4">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="G21"/>
+      <c r="G21" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
@@ -3122,22 +3404,24 @@
     </row>
     <row r="22" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F22" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G22"/>
+      <c r="G22" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
@@ -3173,22 +3457,24 @@
     </row>
     <row r="23" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F23" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G23"/>
+      <c r="G23" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
@@ -3224,22 +3510,24 @@
     </row>
     <row r="24" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F24" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G24"/>
+      <c r="G24" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
@@ -3277,18 +3565,20 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F25" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G25"/>
+      <c r="G25" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
@@ -3324,22 +3614,24 @@
     </row>
     <row r="26" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F26" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G26"/>
+      <c r="G26" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
@@ -3377,18 +3669,20 @@
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F27" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G27"/>
+      <c r="G27" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
@@ -3426,18 +3720,20 @@
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="E28" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F28" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G28"/>
+      <c r="G28" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
@@ -3475,18 +3771,20 @@
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F29" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G29"/>
+      <c r="G29" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
@@ -3524,18 +3822,20 @@
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F30" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G30"/>
+      <c r="G30" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
@@ -3573,18 +3873,20 @@
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F31" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G31"/>
+      <c r="G31" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
@@ -3622,18 +3924,20 @@
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F32" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G32"/>
+      <c r="G32" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
@@ -3671,18 +3975,20 @@
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F33" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G33"/>
+      <c r="G33" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
@@ -3720,18 +4026,20 @@
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F34" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G34"/>
+      <c r="G34" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
@@ -3769,18 +4077,20 @@
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F35" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G35"/>
+      <c r="G35" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
@@ -3818,18 +4128,20 @@
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F36" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G36"/>
+      <c r="G36" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
@@ -3867,18 +4179,20 @@
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F37" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G37"/>
+      <c r="G37" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
@@ -3916,18 +4230,20 @@
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F38" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G38"/>
+      <c r="G38" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
@@ -3965,18 +4281,20 @@
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F39" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G39"/>
+      <c r="G39" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
@@ -4014,18 +4332,20 @@
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F40" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G40"/>
+      <c r="G40" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
@@ -4063,18 +4383,20 @@
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F41" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G41"/>
+      <c r="G41" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
@@ -4112,18 +4434,20 @@
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F42" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G42"/>
+      <c r="G42" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
@@ -4161,18 +4485,20 @@
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F43" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G43"/>
+      <c r="G43" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
@@ -4210,18 +4536,20 @@
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F44" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G44"/>
+      <c r="G44" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
@@ -4259,18 +4587,20 @@
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F45" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G45"/>
+      <c r="G45" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
@@ -4308,18 +4638,20 @@
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F46" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G46"/>
+      <c r="G46" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
@@ -4355,22 +4687,24 @@
     </row>
     <row r="47" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F47" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G47"/>
+      <c r="G47" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H47"/>
       <c r="I47"/>
       <c r="J47"/>
@@ -4405,793 +4739,1527 @@
       <c r="AM47"/>
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A49" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F49" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F50" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A51" s="15"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F51" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52" s="15"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F52" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A53" s="15"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A54" s="15"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F54" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A55" s="15"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A56" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F56" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A57" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F57" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A58" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F58" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F59" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A60" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F60" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A61" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F61" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A62" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F62" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A63" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F63" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A64" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F64" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A65" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F65" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A66" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F66" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F67" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A68" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F68" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F69" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A70" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F70" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A71" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F71" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A72" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F72" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F73" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A74" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F74" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A75" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F75" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A76" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" s="18"/>
+      <c r="C76" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="18">
+        <v>0</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A77" s="19"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77" s="18">
+        <v>0</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A78" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D78" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" s="18">
+        <v>0</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A79" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D79" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="18">
+        <v>0</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A80" s="18"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80" s="18">
+        <v>0</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A81" s="18"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="18">
+        <v>0</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A82" s="18"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82" s="18">
+        <v>0</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A83" s="18"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E83" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="18">
+        <v>0</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A84" s="18"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F84" s="18">
+        <v>0</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A85" s="18"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85" s="18">
+        <v>0</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A86" s="18"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D86" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E86" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F86" s="18">
+        <v>0</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A87" s="18"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D87" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E87" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F87" s="18">
+        <v>0</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A88" s="18"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D88" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F88" s="18">
+        <v>0</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A89" s="18"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D89" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E89" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="18">
+        <v>0</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A90" s="18"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F90" s="18">
+        <v>0</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A91" s="18"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D91" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="18">
+        <v>0</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A92" s="18"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E92" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F92" s="18">
+        <v>0</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A93" s="18"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D93" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F93" s="18">
+        <v>0</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A94" s="18"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="18">
+        <v>0</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A95" s="18"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E95" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F95" s="18">
+        <v>0</v>
+      </c>
+      <c r="G95" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A96" s="18"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D96" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F96" s="18">
+        <v>0</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A97" s="18"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D97" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E97" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F97" s="18">
+        <v>0</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A98" s="18"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D98" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E98" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F98" s="18">
+        <v>0</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A99" s="18"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E99" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F99" s="18">
+        <v>0</v>
+      </c>
+      <c r="G99" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A100" s="18"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D100" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="18">
+        <v>0</v>
+      </c>
+      <c r="G100" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A101" s="18"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D101" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E101" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="18">
+        <v>0</v>
+      </c>
+      <c r="G101" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A102" s="18"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D102" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E102" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="18">
+        <v>0</v>
+      </c>
+      <c r="G102" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A103" s="18"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D103" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E103" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F103" s="18">
+        <v>0</v>
+      </c>
+      <c r="G103" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A104" s="13"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F104" s="13">
+        <v>0</v>
+      </c>
+      <c r="G104" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A105" s="13"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F105" s="13">
+        <v>0</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A106" s="13"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F106" s="13">
+        <v>0</v>
+      </c>
+      <c r="G106" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A107" s="13"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F107" s="13">
+        <v>0</v>
+      </c>
+      <c r="G107" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A108" s="13"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F108" s="13">
+        <v>0</v>
+      </c>
+      <c r="G108" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A109" s="13"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F109" s="13">
+        <v>0</v>
+      </c>
+      <c r="G109" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A110" s="13"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D110" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" s="13">
+      <c r="E110" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F110" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A49" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" s="13">
+      <c r="G110" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A111" s="13"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F111" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A50" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" s="13">
+      <c r="G111" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A112" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B112" s="13"/>
+      <c r="C112" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E112" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F112" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A51" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F51" s="13">
+      <c r="G112" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A113" s="13"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E113" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F113" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A52" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" s="13">
+      <c r="G113" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A114" s="13"/>
+      <c r="B114" s="13"/>
+      <c r="C114" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F114" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A53" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" s="13">
+      <c r="G114" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A115" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B115" s="13"/>
+      <c r="C115" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E115" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F115" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A54" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F54" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A55" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F55" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F56" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F58" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F60" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F61" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F62" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F63" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A64" s="13"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F64" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A66" s="13"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F66" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F67" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A68" s="13"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F68" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A69" s="13"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F69" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F70" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F71" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F72" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F73" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A74" s="13"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F74" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A75" s="13"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F75" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A76" s="14"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D76" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F76" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A77" s="14"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D77" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E77" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F77" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A78" s="14"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D78" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E78" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A79" s="14"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D79" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E79" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F79" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A80" s="14"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D80" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E80" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F80" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A81" s="14"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D81" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E81" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F81" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A82" s="14"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D82" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E82" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F82" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A83" s="14"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D83" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E83" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F83" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A84" s="14"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D84" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E84" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F84" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A85" s="14"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D85" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E85" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F85" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A86" s="14"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D86" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="E86" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F86" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A87" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D87" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E87" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F87" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A88" s="14"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A89" s="14"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A90" s="14"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A91" s="14"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A92" s="14"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A93" s="14"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A94" s="14"/>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A95" s="14"/>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A96" s="14"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A97" s="14"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A98" s="14"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A99" s="14"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A100" s="14"/>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A101" s="14"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A102" s="14"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A103" s="14"/>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
+      <c r="G115" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A116" s="13"/>
+      <c r="B116" s="13"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A117" s="13"/>
+      <c r="B117" s="13"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A118" s="13"/>
+      <c r="B118" s="13"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A119" s="13"/>
+      <c r="B119" s="13"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A120" s="13"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A121" s="13"/>
+      <c r="B121" s="13"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A122" s="13"/>
+      <c r="B122" s="13"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A123" s="13"/>
+      <c r="B123" s="13"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A124" s="13"/>
+      <c r="B124" s="13"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
+      <c r="G124" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A125" s="13"/>
+      <c r="B125" s="13"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="13"/>
+      <c r="G125" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A126" s="13"/>
+      <c r="B126" s="13"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A127" s="13"/>
+      <c r="B127" s="13"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="13"/>
+      <c r="G127" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A128" s="13"/>
+      <c r="B128" s="13"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="13"/>
+      <c r="G128" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A129" s="13"/>
+      <c r="B129" s="13"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="13"/>
+      <c r="G129" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A130" s="13"/>
+      <c r="B130" s="13"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="13"/>
+      <c r="G130" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A131" s="13"/>
+      <c r="B131" s="13"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="10" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/user_files/reagent_index.xlsx
+++ b/user_files/reagent_index.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xubar\OneDrive\Robot\Softwares\S2\user_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Robot\S2-Software\user_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6048AC-430D-4C06-9B9B-A8BB4EC01C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="23233" windowHeight="12547"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="reagent_index" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="142">
   <si>
     <t>CAS-NO</t>
   </si>
@@ -868,11 +869,15 @@
     <t>Pyran-4-amine</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>liquid1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1496,48 +1501,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1848,28 +1853,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:CG150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.1171875" style="38" customWidth="1"/>
-    <col min="2" max="2" width="13.76171875" style="38" customWidth="1"/>
-    <col min="3" max="3" width="18.87890625" customWidth="1"/>
-    <col min="4" max="4" width="17.234375" customWidth="1"/>
-    <col min="5" max="5" width="15.1171875" customWidth="1"/>
-    <col min="6" max="6" width="31.41015625" customWidth="1"/>
-    <col min="7" max="7" width="10.3515625" customWidth="1"/>
+    <col min="1" max="1" width="35.125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="38" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="31.375" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:85" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
@@ -1972,7 +1977,7 @@
       <c r="CF1"/>
       <c r="CG1"/>
     </row>
-    <row r="2" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>66</v>
       </c>
@@ -2071,7 +2076,7 @@
       <c r="CF2"/>
       <c r="CG2"/>
     </row>
-    <row r="3" spans="1:85" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:85" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="47" t="s">
         <v>64</v>
       </c>
@@ -2170,7 +2175,7 @@
       <c r="CF3"/>
       <c r="CG3"/>
     </row>
-    <row r="4" spans="1:85" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:85" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
         <v>92</v>
       </c>
@@ -2269,7 +2274,7 @@
       <c r="CF4"/>
       <c r="CG4"/>
     </row>
-    <row r="5" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
         <v>63</v>
       </c>
@@ -2368,7 +2373,7 @@
       <c r="CF5"/>
       <c r="CG5"/>
     </row>
-    <row r="6" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
         <v>65</v>
       </c>
@@ -2467,7 +2472,7 @@
       <c r="CF6"/>
       <c r="CG6"/>
     </row>
-    <row r="7" spans="1:85" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A7" s="50" t="s">
         <v>94</v>
       </c>
@@ -2488,11 +2493,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:85" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8"/>
     </row>
-    <row r="9" spans="1:85" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:85" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>96</v>
       </c>
@@ -2591,7 +2596,7 @@
       <c r="CF9" s="6"/>
       <c r="CG9" s="6"/>
     </row>
-    <row r="10" spans="1:85" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:85" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>67</v>
       </c>
@@ -2690,7 +2695,7 @@
       <c r="CF10" s="6"/>
       <c r="CG10" s="6"/>
     </row>
-    <row r="11" spans="1:85" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:85" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>15</v>
       </c>
@@ -2789,7 +2794,7 @@
       <c r="CF11" s="6"/>
       <c r="CG11" s="6"/>
     </row>
-    <row r="12" spans="1:85" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:85" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>103</v>
       </c>
@@ -2888,7 +2893,7 @@
       <c r="CF12" s="6"/>
       <c r="CG12" s="6"/>
     </row>
-    <row r="13" spans="1:85" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:85" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>48</v>
       </c>
@@ -2987,7 +2992,7 @@
       <c r="CF13" s="6"/>
       <c r="CG13" s="6"/>
     </row>
-    <row r="14" spans="1:85" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:85" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>35</v>
       </c>
@@ -3086,11 +3091,11 @@
       <c r="CF14" s="6"/>
       <c r="CG14" s="6"/>
     </row>
-    <row r="15" spans="1:85" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:85" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:85" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
         <v>108</v>
       </c>
@@ -3143,7 +3148,7 @@
       <c r="AL16"/>
       <c r="AM16"/>
     </row>
-    <row r="17" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
         <v>93</v>
       </c>
@@ -3196,7 +3201,7 @@
       <c r="AL17"/>
       <c r="AM17"/>
     </row>
-    <row r="18" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="28"/>
       <c r="B18" s="27"/>
       <c r="C18" s="11" t="s">
@@ -3247,7 +3252,7 @@
       <c r="AL18"/>
       <c r="AM18"/>
     </row>
-    <row r="19" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="28"/>
       <c r="B19" s="27"/>
       <c r="C19" s="11" t="s">
@@ -3298,7 +3303,7 @@
       <c r="AL19"/>
       <c r="AM19"/>
     </row>
-    <row r="20" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="28"/>
       <c r="B20" s="27"/>
       <c r="C20" s="11" t="s">
@@ -3351,7 +3356,7 @@
       <c r="AL20"/>
       <c r="AM20"/>
     </row>
-    <row r="21" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
         <v>68</v>
       </c>
@@ -3406,11 +3411,11 @@
       <c r="AL21"/>
       <c r="AM21"/>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" s="37" t="s">
         <v>99</v>
       </c>
@@ -3433,7 +3438,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" s="37" t="s">
         <v>125</v>
       </c>
@@ -3456,7 +3461,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25" s="37" t="s">
         <v>105</v>
       </c>
@@ -3479,7 +3484,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26" s="37" t="s">
         <v>128</v>
       </c>
@@ -3502,7 +3507,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
         <v>129</v>
       </c>
@@ -3525,7 +3530,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" s="54" t="s">
         <v>130</v>
       </c>
@@ -3548,7 +3553,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A29" s="54" t="s">
         <v>132</v>
       </c>
@@ -3571,7 +3576,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30" s="52"/>
       <c r="B30" s="52"/>
       <c r="C30" s="53" t="s">
@@ -3590,7 +3595,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A31" s="37" t="s">
         <v>138</v>
       </c>
@@ -3613,7 +3618,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A32" s="37"/>
       <c r="B32" s="37"/>
       <c r="C32" s="16" t="s">
@@ -3628,7 +3633,7 @@
       <c r="F32" s="13"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="37"/>
       <c r="B33" s="37"/>
       <c r="C33" s="16" t="s">
@@ -3647,8 +3652,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="37"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="37" t="s">
+        <v>141</v>
+      </c>
       <c r="B34" s="37"/>
       <c r="C34" s="16" t="s">
         <v>57</v>
@@ -3666,11 +3673,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="37" t="s">
         <v>140</v>
       </c>
@@ -3693,7 +3700,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="37" t="s">
         <v>135</v>
       </c>
@@ -3716,7 +3723,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="37" t="s">
         <v>122</v>
       </c>
@@ -3739,7 +3746,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="37"/>
       <c r="B39" s="37"/>
       <c r="C39" s="16" t="s">
@@ -3758,7 +3765,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="52" t="s">
         <v>113</v>
       </c>
@@ -3781,7 +3788,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="54" t="s">
         <v>119</v>
       </c>
@@ -3802,7 +3809,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="54" t="s">
         <v>115</v>
       </c>
@@ -3825,7 +3832,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="52" t="s">
         <v>117</v>
       </c>
@@ -3848,7 +3855,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="55" t="s">
         <v>121</v>
       </c>
@@ -3869,7 +3876,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="37" t="s">
         <v>107</v>
       </c>
@@ -3892,7 +3899,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="37"/>
       <c r="B46" s="37"/>
       <c r="C46" s="16" t="s">
@@ -3911,7 +3918,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="37" t="s">
         <v>137</v>
       </c>
@@ -3934,12 +3941,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48"/>
       <c r="B48"/>
     </row>
-    <row r="49" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="29"/>
+    <row r="49" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="29" t="s">
+        <v>54</v>
+      </c>
       <c r="B49" s="30"/>
       <c r="C49" s="4" t="s">
         <v>37</v>
@@ -3989,7 +3998,7 @@
       <c r="AL49"/>
       <c r="AM49"/>
     </row>
-    <row r="50" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="29"/>
       <c r="B50" s="30"/>
       <c r="C50" s="4" t="s">
@@ -4040,7 +4049,7 @@
       <c r="AL50"/>
       <c r="AM50"/>
     </row>
-    <row r="51" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="29"/>
       <c r="B51" s="30"/>
       <c r="C51" s="4" t="s">
@@ -4091,7 +4100,7 @@
       <c r="AL51"/>
       <c r="AM51"/>
     </row>
-    <row r="52" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="29"/>
       <c r="B52" s="30"/>
       <c r="C52" s="4" t="s">
@@ -4142,10 +4151,8 @@
       <c r="AL52"/>
       <c r="AM52"/>
     </row>
-    <row r="53" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="29" t="s">
-        <v>54</v>
-      </c>
+    <row r="53" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="29"/>
       <c r="B53" s="30"/>
       <c r="C53" s="4" t="s">
         <v>7</v>
@@ -4195,7 +4202,7 @@
       <c r="AL53"/>
       <c r="AM53"/>
     </row>
-    <row r="54" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="30"/>
       <c r="B54" s="30"/>
       <c r="C54" s="4" t="s">
@@ -4246,7 +4253,7 @@
       <c r="AL54"/>
       <c r="AM54"/>
     </row>
-    <row r="55" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="30" t="s">
         <v>46</v>
       </c>
@@ -4299,7 +4306,7 @@
       <c r="AL55"/>
       <c r="AM55"/>
     </row>
-    <row r="56" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="30"/>
       <c r="B56" s="30"/>
       <c r="C56" s="4" t="s">
@@ -4350,7 +4357,7 @@
       <c r="AL56"/>
       <c r="AM56"/>
     </row>
-    <row r="57" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="30"/>
       <c r="B57" s="30"/>
       <c r="C57" s="4" t="s">
@@ -4401,7 +4408,7 @@
       <c r="AL57"/>
       <c r="AM57"/>
     </row>
-    <row r="58" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="30"/>
       <c r="B58" s="30"/>
       <c r="C58" s="4" t="s">
@@ -4452,7 +4459,7 @@
       <c r="AL58"/>
       <c r="AM58"/>
     </row>
-    <row r="59" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="30"/>
       <c r="B59" s="30"/>
       <c r="C59" s="4" t="s">
@@ -4503,7 +4510,7 @@
       <c r="AL59"/>
       <c r="AM59"/>
     </row>
-    <row r="60" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="30"/>
       <c r="B60" s="30"/>
       <c r="C60" s="4" t="s">
@@ -4554,7 +4561,7 @@
       <c r="AL60"/>
       <c r="AM60"/>
     </row>
-    <row r="61" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="30"/>
       <c r="B61" s="30"/>
       <c r="C61" s="4" t="s">
@@ -4605,7 +4612,7 @@
       <c r="AL61"/>
       <c r="AM61"/>
     </row>
-    <row r="62" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="30"/>
       <c r="B62" s="30"/>
       <c r="C62" s="4" t="s">
@@ -4656,7 +4663,7 @@
       <c r="AL62"/>
       <c r="AM62"/>
     </row>
-    <row r="63" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="30"/>
       <c r="B63" s="30"/>
       <c r="C63" s="4" t="s">
@@ -4707,7 +4714,7 @@
       <c r="AL63"/>
       <c r="AM63"/>
     </row>
-    <row r="64" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="30"/>
       <c r="B64" s="30"/>
       <c r="C64" s="4" t="s">
@@ -4758,7 +4765,7 @@
       <c r="AL64"/>
       <c r="AM64"/>
     </row>
-    <row r="65" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="30"/>
       <c r="B65" s="30"/>
       <c r="C65" s="4" t="s">
@@ -4809,7 +4816,7 @@
       <c r="AL65"/>
       <c r="AM65"/>
     </row>
-    <row r="66" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="30"/>
       <c r="B66" s="30"/>
       <c r="C66" s="4" t="s">
@@ -4860,7 +4867,7 @@
       <c r="AL66"/>
       <c r="AM66"/>
     </row>
-    <row r="67" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="30"/>
       <c r="B67" s="30"/>
       <c r="C67" s="4" t="s">
@@ -4911,7 +4918,7 @@
       <c r="AL67"/>
       <c r="AM67"/>
     </row>
-    <row r="68" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="30"/>
       <c r="B68" s="30"/>
       <c r="C68" s="4" t="s">
@@ -4962,7 +4969,7 @@
       <c r="AL68"/>
       <c r="AM68"/>
     </row>
-    <row r="69" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="30"/>
       <c r="B69" s="30"/>
       <c r="C69" s="4" t="s">
@@ -5013,7 +5020,7 @@
       <c r="AL69"/>
       <c r="AM69"/>
     </row>
-    <row r="70" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="30"/>
       <c r="B70" s="30"/>
       <c r="C70" s="4" t="s">
@@ -5064,7 +5071,7 @@
       <c r="AL70"/>
       <c r="AM70"/>
     </row>
-    <row r="71" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="30"/>
       <c r="B71" s="30"/>
       <c r="C71" s="4" t="s">
@@ -5115,7 +5122,7 @@
       <c r="AL71"/>
       <c r="AM71"/>
     </row>
-    <row r="72" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="30"/>
       <c r="B72" s="30"/>
       <c r="C72" s="4" t="s">
@@ -5166,7 +5173,7 @@
       <c r="AL72"/>
       <c r="AM72"/>
     </row>
-    <row r="73" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="30"/>
       <c r="B73" s="30"/>
       <c r="C73" s="4" t="s">
@@ -5217,7 +5224,7 @@
       <c r="AL73"/>
       <c r="AM73"/>
     </row>
-    <row r="74" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="30"/>
       <c r="B74" s="30"/>
       <c r="C74" s="4" t="s">
@@ -5268,7 +5275,7 @@
       <c r="AL74"/>
       <c r="AM74"/>
     </row>
-    <row r="75" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="30"/>
       <c r="B75" s="30"/>
       <c r="C75" s="4" t="s">
@@ -5319,7 +5326,7 @@
       <c r="AL75"/>
       <c r="AM75"/>
     </row>
-    <row r="76" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="29" t="s">
         <v>55</v>
       </c>
@@ -5372,11 +5379,11 @@
       <c r="AL76"/>
       <c r="AM76"/>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A77"/>
       <c r="B77"/>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A78" s="31" t="s">
         <v>73</v>
       </c>
@@ -5399,7 +5406,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A79" s="31" t="s">
         <v>74</v>
       </c>
@@ -5420,7 +5427,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A80" s="31" t="s">
         <v>75</v>
       </c>
@@ -5441,7 +5448,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="31"/>
       <c r="B81" s="33"/>
       <c r="C81" s="12" t="s">
@@ -5460,7 +5467,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="31"/>
       <c r="B82" s="33"/>
       <c r="C82" s="12" t="s">
@@ -5479,7 +5486,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="31"/>
       <c r="B83" s="33"/>
       <c r="C83" s="12" t="s">
@@ -5498,7 +5505,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="31"/>
       <c r="B84" s="33"/>
       <c r="C84" s="12" t="s">
@@ -5517,7 +5524,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="31"/>
       <c r="B85" s="33"/>
       <c r="C85" s="12" t="s">
@@ -5536,7 +5543,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="32" t="s">
         <v>76</v>
       </c>
@@ -5557,7 +5564,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="31" t="s">
         <v>77</v>
       </c>
@@ -5578,7 +5585,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="31" t="s">
         <v>78</v>
       </c>
@@ -5599,7 +5606,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="33"/>
       <c r="B89" s="33"/>
       <c r="C89" s="12" t="s">
@@ -5618,7 +5625,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="31" t="s">
         <v>60</v>
       </c>
@@ -5641,7 +5648,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="31" t="s">
         <v>79</v>
       </c>
@@ -5662,7 +5669,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="31" t="s">
         <v>80</v>
       </c>
@@ -5683,7 +5690,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="31" t="s">
         <v>81</v>
       </c>
@@ -5704,7 +5711,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="31" t="s">
         <v>82</v>
       </c>
@@ -5725,7 +5732,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="31" t="s">
         <v>83</v>
       </c>
@@ -5746,7 +5753,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="31" t="s">
         <v>84</v>
       </c>
@@ -5767,7 +5774,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="33"/>
       <c r="B97" s="33"/>
       <c r="C97" s="12" t="s">
@@ -5786,7 +5793,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="31" t="s">
         <v>85</v>
       </c>
@@ -5807,7 +5814,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="33"/>
       <c r="B99" s="33"/>
       <c r="C99" s="12" t="s">
@@ -5826,7 +5833,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="31" t="s">
         <v>89</v>
       </c>
@@ -5847,7 +5854,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="31" t="s">
         <v>90</v>
       </c>
@@ -5868,7 +5875,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="31" t="s">
         <v>86</v>
       </c>
@@ -5889,7 +5896,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="33"/>
       <c r="B103" s="33"/>
       <c r="C103" s="12" t="s">
@@ -5908,7 +5915,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="31" t="s">
         <v>87</v>
       </c>
@@ -5929,7 +5936,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="31" t="s">
         <v>88</v>
       </c>
@@ -5950,11 +5957,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="34"/>
       <c r="B107" s="35"/>
       <c r="C107" s="18" t="s">
@@ -5973,7 +5980,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="34"/>
       <c r="B108" s="35"/>
       <c r="C108" s="18" t="s">
@@ -5992,7 +5999,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="34"/>
       <c r="B109" s="35"/>
       <c r="C109" s="18" t="s">
@@ -6011,7 +6018,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="35"/>
       <c r="B110" s="35"/>
       <c r="C110" s="18" t="s">
@@ -6030,7 +6037,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="35"/>
       <c r="B111" s="35"/>
       <c r="C111" s="18" t="s">
@@ -6049,7 +6056,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="35"/>
       <c r="B112" s="35"/>
       <c r="C112" s="18" t="s">
@@ -6068,7 +6075,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="35"/>
       <c r="B113" s="35"/>
       <c r="C113" s="18" t="s">
@@ -6087,7 +6094,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="35"/>
       <c r="B114" s="35"/>
       <c r="C114" s="18" t="s">
@@ -6106,7 +6113,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="35"/>
       <c r="B115" s="35"/>
       <c r="C115" s="18" t="s">
@@ -6125,7 +6132,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="35"/>
       <c r="B116" s="35"/>
       <c r="C116" s="18" t="s">
@@ -6144,7 +6151,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="35"/>
       <c r="B117" s="35"/>
       <c r="C117" s="18" t="s">
@@ -6163,7 +6170,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="35"/>
       <c r="B118" s="35"/>
       <c r="C118" s="18" t="s">
@@ -6182,7 +6189,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="35"/>
       <c r="B119" s="35"/>
       <c r="C119" s="18" t="s">
@@ -6201,7 +6208,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="35"/>
       <c r="B120" s="35"/>
       <c r="C120" s="18" t="s">
@@ -6220,7 +6227,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="35"/>
       <c r="B121" s="35"/>
       <c r="C121" s="18" t="s">
@@ -6239,7 +6246,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="35"/>
       <c r="B122" s="35"/>
       <c r="C122" s="18" t="s">
@@ -6258,7 +6265,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="35"/>
       <c r="B123" s="35"/>
       <c r="C123" s="18" t="s">
@@ -6277,7 +6284,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="35"/>
       <c r="B124" s="35"/>
       <c r="C124" s="18" t="s">
@@ -6296,7 +6303,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="35"/>
       <c r="B125" s="35"/>
       <c r="C125" s="18" t="s">
@@ -6315,7 +6322,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="35"/>
       <c r="B126" s="35"/>
       <c r="C126" s="18" t="s">
@@ -6334,7 +6341,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="35"/>
       <c r="B127" s="35"/>
       <c r="C127" s="18" t="s">
@@ -6353,7 +6360,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="35"/>
       <c r="B128" s="35"/>
       <c r="C128" s="18" t="s">
@@ -6372,7 +6379,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="35"/>
       <c r="B129" s="35"/>
       <c r="C129" s="18" t="s">
@@ -6391,7 +6398,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="35"/>
       <c r="B130" s="35"/>
       <c r="C130" s="18" t="s">
@@ -6410,7 +6417,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="35"/>
       <c r="B131" s="35"/>
       <c r="C131" s="18" t="s">
@@ -6429,7 +6436,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="35"/>
       <c r="B132" s="35"/>
       <c r="C132" s="18" t="s">
@@ -6448,7 +6455,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="35"/>
       <c r="B133" s="35"/>
       <c r="C133" s="18" t="s">
@@ -6467,7 +6474,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="35"/>
       <c r="B134" s="35"/>
       <c r="C134" s="18" t="s">
@@ -6486,7 +6493,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="135" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="40"/>
       <c r="B135" s="40"/>
       <c r="C135" s="41"/>
@@ -6497,7 +6504,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="36"/>
       <c r="B136" s="36"/>
       <c r="C136" s="13"/>
@@ -6508,7 +6515,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="36"/>
       <c r="B137" s="36"/>
       <c r="C137" s="13"/>
@@ -6519,7 +6526,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="36"/>
       <c r="B138" s="36"/>
       <c r="C138" s="13"/>
@@ -6530,7 +6537,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="36"/>
       <c r="B139" s="36"/>
       <c r="C139" s="13"/>
@@ -6541,7 +6548,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="36"/>
       <c r="B140" s="36"/>
       <c r="C140" s="13"/>
@@ -6552,7 +6559,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="36"/>
       <c r="B141" s="36"/>
       <c r="C141" s="13"/>
@@ -6563,7 +6570,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="36"/>
       <c r="B142" s="36"/>
       <c r="C142" s="13"/>
@@ -6574,7 +6581,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="36"/>
       <c r="B143" s="36"/>
       <c r="C143" s="13"/>
@@ -6585,7 +6592,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="36"/>
       <c r="B144" s="36"/>
       <c r="C144" s="13"/>
@@ -6596,7 +6603,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="36"/>
       <c r="B145" s="36"/>
       <c r="C145" s="13"/>
@@ -6607,7 +6614,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="36"/>
       <c r="B146" s="36"/>
       <c r="C146" s="13"/>
@@ -6618,7 +6625,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="36"/>
       <c r="B147" s="36"/>
       <c r="C147" s="13"/>
@@ -6629,7 +6636,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="36"/>
       <c r="B148" s="36"/>
       <c r="C148" s="13"/>
@@ -6640,7 +6647,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="36"/>
       <c r="B149" s="36"/>
       <c r="C149" s="13"/>
@@ -6651,7 +6658,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="36"/>
       <c r="B150" s="36"/>
       <c r="C150" s="13"/>
@@ -6670,12 +6677,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
